--- a/Documents/Task Assignments - Requirements.xlsx
+++ b/Documents/Task Assignments - Requirements.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27511"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27514"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{246C310F-4747-4D3F-9A15-F7C955178EF5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{AE383E3D-22B2-4DA7-9A16-6C8290D4EBE4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -155,7 +155,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -163,14 +163,46 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -505,213 +537,223 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B2:D21"/>
+  <dimension ref="A1:C20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
+    <col min="1" max="1" width="49.28515625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="51.7109375" customWidth="1"/>
     <col min="3" max="3" width="34.5703125" customWidth="1"/>
     <col min="4" max="4" width="29.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:4">
-      <c r="B2" t="s">
+    <row r="1" spans="1:3">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C2" t="s">
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="D2" t="s">
+      <c r="C1" s="5" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="2:4">
-      <c r="B3" s="2" t="s">
+    <row r="2" spans="1:3">
+      <c r="A2" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="4" spans="2:4">
+      <c r="B2" s="1"/>
+      <c r="C2" s="1"/>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
       <c r="B4" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5" spans="2:4">
-      <c r="B5" t="s">
-        <v>6</v>
-      </c>
-      <c r="C5" t="s">
         <v>7</v>
       </c>
-      <c r="D5" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="6" spans="2:4">
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="1" t="s">
+        <v>10</v>
+      </c>
       <c r="B6" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D6" s="1" t="s">
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" s="1"/>
+      <c r="B11" s="1"/>
+      <c r="C11" s="1"/>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B12" s="1"/>
+      <c r="C12" s="1"/>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" s="3" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="7" spans="2:4">
-      <c r="B7" t="s">
-        <v>10</v>
-      </c>
-      <c r="C7" t="s">
+      <c r="C15" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D7" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="8" spans="2:4">
-      <c r="B8" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="9" spans="2:4">
-      <c r="B9" t="s">
-        <v>13</v>
-      </c>
-      <c r="C9" t="s">
-        <v>12</v>
-      </c>
-      <c r="D9" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="10" spans="2:4">
-      <c r="B10" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C10" s="1" t="s">
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B19" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="D10" s="1" t="s">
+      <c r="C19" s="3" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="11" spans="2:4">
-      <c r="B11" t="s">
-        <v>16</v>
-      </c>
-      <c r="C11" t="s">
-        <v>5</v>
-      </c>
-      <c r="D11" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="13" spans="2:4">
-      <c r="B13" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="14" spans="2:4">
-      <c r="B14" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="15" spans="2:4">
-      <c r="B15" t="s">
-        <v>20</v>
-      </c>
-      <c r="C15" t="s">
-        <v>21</v>
-      </c>
-      <c r="D15" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="16" spans="2:4">
-      <c r="B16" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="17" spans="2:4">
-      <c r="B17" t="s">
-        <v>23</v>
-      </c>
-      <c r="C17" t="s">
-        <v>5</v>
-      </c>
-      <c r="D17" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="18" spans="2:4">
-      <c r="B18" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="19" spans="2:4">
-      <c r="B19" t="s">
-        <v>26</v>
-      </c>
-      <c r="C19" t="s">
-        <v>12</v>
-      </c>
-      <c r="D19" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="20" spans="2:4">
+    <row r="20" spans="1:3">
+      <c r="A20" s="1" t="s">
+        <v>28</v>
+      </c>
       <c r="B20" s="1" t="s">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D20" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="21" spans="2:4">
-      <c r="B21" t="s">
-        <v>28</v>
-      </c>
-      <c r="C21" t="s">
-        <v>12</v>
-      </c>
-      <c r="D21" t="s">
         <v>12</v>
       </c>
     </row>

--- a/Documents/Task Assignments - Requirements.xlsx
+++ b/Documents/Task Assignments - Requirements.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27514"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27609"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{AE383E3D-22B2-4DA7-9A16-6C8290D4EBE4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{35E4674F-C154-4E17-B318-13227D7C2530}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="50">
   <si>
     <t xml:space="preserve">Task </t>
   </si>
@@ -118,13 +118,76 @@
   </si>
   <si>
     <t>Updated Task Requirements and Project Requirements</t>
+  </si>
+  <si>
+    <t>Implementation</t>
+  </si>
+  <si>
+    <t>WordList.txt</t>
+  </si>
+  <si>
+    <t>WordLocation.java (and associated unit tests)</t>
+  </si>
+  <si>
+    <t>WordBank.java (and associated unit tests)</t>
+  </si>
+  <si>
+    <t>GameSession.java (and associated unit tests)</t>
+  </si>
+  <si>
+    <t>Index.html</t>
+  </si>
+  <si>
+    <t>WordBankGame.java</t>
+  </si>
+  <si>
+    <t>Didn't end up using</t>
+  </si>
+  <si>
+    <t>Deployed to cse3310.org</t>
+  </si>
+  <si>
+    <t>App.java (and associated unit tests)</t>
+  </si>
+  <si>
+    <t>Grace Daily and Will Maberry</t>
+  </si>
+  <si>
+    <t>ServerEvent.java (and associated unit tests)</t>
+  </si>
+  <si>
+    <t>UserAuthentication.java (and associated unit tests)</t>
+  </si>
+  <si>
+    <t>Ammar Rafiq (no unit tests)</t>
+  </si>
+  <si>
+    <t>UserEvent.java (and associated unit tests)</t>
+  </si>
+  <si>
+    <t>Lobby.java (and associated unit tests)</t>
+  </si>
+  <si>
+    <t>Subodh Neupane (no unit tests)</t>
+  </si>
+  <si>
+    <t>Leaderboard.java</t>
+  </si>
+  <si>
+    <t>Players.java</t>
+  </si>
+  <si>
+    <t>No work done and no communication</t>
+  </si>
+  <si>
+    <t>Statistics.java</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -139,6 +202,12 @@
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Aptos Narrow"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="3">
@@ -196,13 +265,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -537,10 +608,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C20"/>
+  <dimension ref="A1:C38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="C19" sqref="C19:C29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -757,6 +828,194 @@
         <v>12</v>
       </c>
     </row>
+    <row r="21" spans="1:3">
+      <c r="A21" s="1"/>
+      <c r="B21" s="1"/>
+      <c r="C21" s="1"/>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B22" s="1"/>
+      <c r="C22" s="1"/>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="B25" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C25" s="6" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B26" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C26" s="7" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C27" s="6" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="A29" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="A30" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
+      <c r="A31" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="B31" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
+      <c r="A32" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
+      <c r="A33" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="B33" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C33" s="3" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3">
+      <c r="A34" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3">
+      <c r="A35" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="B35" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C35" s="3" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3">
+      <c r="A36" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3">
+      <c r="A37" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="B37" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C37" s="3" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3">
+      <c r="A38" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Documents/Task Assignments - Requirements.xlsx
+++ b/Documents/Task Assignments - Requirements.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27609"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{35E4674F-C154-4E17-B318-13227D7C2530}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{E080958E-32DF-4DDB-84CF-AA42846760DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="49">
   <si>
     <t xml:space="preserve">Task </t>
   </si>
@@ -120,13 +120,13 @@
     <t>Updated Task Requirements and Project Requirements</t>
   </si>
   <si>
-    <t>Implementation</t>
+    <t>IMPLEMENTATION</t>
   </si>
   <si>
     <t>WordList.txt</t>
   </si>
   <si>
-    <t>WordLocation.java (and associated unit tests)</t>
+    <t>WordLocation.java</t>
   </si>
   <si>
     <t>WordBank.java (and associated unit tests)</t>
@@ -138,56 +138,53 @@
     <t>Index.html</t>
   </si>
   <si>
+    <t>David Oyekola and Will Maberry</t>
+  </si>
+  <si>
     <t>WordBankGame.java</t>
   </si>
   <si>
-    <t>Didn't end up using</t>
+    <t>Didn't end up needing</t>
   </si>
   <si>
     <t>Deployed to cse3310.org</t>
   </si>
   <si>
-    <t>App.java (and associated unit tests)</t>
+    <t>App.java</t>
   </si>
   <si>
     <t>Grace Daily and Will Maberry</t>
   </si>
   <si>
-    <t>ServerEvent.java (and associated unit tests)</t>
+    <t>ServerEvent.java</t>
   </si>
   <si>
     <t>UserAuthentication.java (and associated unit tests)</t>
   </si>
   <si>
-    <t>Ammar Rafiq (no unit tests)</t>
-  </si>
-  <si>
-    <t>UserEvent.java (and associated unit tests)</t>
+    <t>UserEvent.java</t>
+  </si>
+  <si>
+    <t>Ammar Rafiq and Will Maberry</t>
   </si>
   <si>
     <t>Lobby.java (and associated unit tests)</t>
   </si>
   <si>
-    <t>Subodh Neupane (no unit tests)</t>
-  </si>
-  <si>
-    <t>Leaderboard.java</t>
-  </si>
-  <si>
-    <t>Players.java</t>
-  </si>
-  <si>
-    <t>No work done and no communication</t>
-  </si>
-  <si>
-    <t>Statistics.java</t>
+    <t>Leaderboard.java (and associated unit tests)</t>
+  </si>
+  <si>
+    <t>Players.java (and associated unit tests)</t>
+  </si>
+  <si>
+    <t>Statistics.java (and associated unit tests)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -205,9 +202,15 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Aptos Narrow"/>
-      <charset val="1"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
@@ -265,7 +268,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -274,6 +277,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -611,7 +616,7 @@
   <dimension ref="A1:C38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19:C29"/>
+      <selection activeCell="A41" sqref="A41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -841,179 +846,179 @@
       <c r="C22" s="1"/>
     </row>
     <row r="23" spans="1:3">
-      <c r="A23" s="3" t="s">
+      <c r="A23" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="B23" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C23" s="3" t="s">
+      <c r="B23" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C23" s="6" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="24" spans="1:3">
-      <c r="A24" s="1" t="s">
+      <c r="A24" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="B24" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C24" s="1" t="s">
+      <c r="B24" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C24" s="7" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="25" spans="1:3">
-      <c r="A25" s="3" t="s">
+      <c r="A25" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="B25" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="C25" s="6" t="s">
+      <c r="B25" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="C25" s="8" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="26" spans="1:3">
-      <c r="A26" s="1" t="s">
+      <c r="A26" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="B26" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="C26" s="7" t="s">
+      <c r="B26" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="C26" s="9" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="27" spans="1:3">
-      <c r="A27" s="3" t="s">
+      <c r="A27" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="B27" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C27" s="6" t="s">
+      <c r="B27" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C27" s="8" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="28" spans="1:3">
-      <c r="A28" s="1" t="s">
+      <c r="A28" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="B28" s="1" t="s">
+      <c r="B28" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="C28" s="1" t="s">
+      <c r="C28" s="7" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="A29" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="B29" s="6" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="29" spans="1:3">
-      <c r="A29" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="B29" s="3" t="s">
+      <c r="C29" s="6" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="A30" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="B30" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="C29" s="3" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3">
-      <c r="A30" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="B30" s="1" t="s">
+      <c r="C30" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="C30" s="1" t="s">
-        <v>21</v>
-      </c>
     </row>
     <row r="31" spans="1:3">
-      <c r="A31" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="B31" s="3" t="s">
+      <c r="A31" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="B31" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="C31" s="3" t="s">
-        <v>39</v>
+      <c r="C31" s="6" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="32" spans="1:3">
-      <c r="A32" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="B32" s="1" t="s">
+      <c r="A32" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="B32" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="C32" s="1" t="s">
+      <c r="C32" s="7" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="33" spans="1:3">
-      <c r="A33" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="B33" s="3" t="s">
+      <c r="A33" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="B33" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="C33" s="3" t="s">
-        <v>42</v>
+      <c r="C33" s="6" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="34" spans="1:3">
-      <c r="A34" s="1" t="s">
+      <c r="A34" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="B34" s="1" t="s">
+      <c r="B34" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="C34" s="1" t="s">
-        <v>12</v>
+      <c r="C34" s="7" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="35" spans="1:3">
-      <c r="A35" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="B35" s="3" t="s">
+      <c r="A35" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="B35" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="C35" s="3" t="s">
-        <v>45</v>
+      <c r="C35" s="6" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="36" spans="1:3">
-      <c r="A36" s="1" t="s">
+      <c r="A36" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="B36" s="1" t="s">
+      <c r="B36" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="C36" s="1" t="s">
-        <v>45</v>
+      <c r="C36" s="7" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="37" spans="1:3">
-      <c r="A37" s="3" t="s">
+      <c r="A37" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="B37" s="3" t="s">
+      <c r="B37" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="C37" s="3" t="s">
+      <c r="C37" s="6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3">
+      <c r="A38" s="7" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="38" spans="1:3">
-      <c r="A38" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="B38" s="1" t="s">
+      <c r="B38" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="C38" s="1" t="s">
-        <v>48</v>
+      <c r="C38" s="7" t="s">
+        <v>25</v>
       </c>
     </row>
   </sheetData>

--- a/Documents/Task Assignments - Requirements.xlsx
+++ b/Documents/Task Assignments - Requirements.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27609"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27624"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E080958E-32DF-4DDB-84CF-AA42846760DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{AF82182D-1CA3-484F-BBDF-8FE415888D87}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="57">
   <si>
     <t xml:space="preserve">Task </t>
   </si>
@@ -178,6 +178,30 @@
   </si>
   <si>
     <t>Statistics.java (and associated unit tests)</t>
+  </si>
+  <si>
+    <t>TESTING</t>
+  </si>
+  <si>
+    <t>bug fixing game functionality and game user story test</t>
+  </si>
+  <si>
+    <t>bug fixing online players and online players user story test</t>
+  </si>
+  <si>
+    <t>bug fixing message sending and message user story test</t>
+  </si>
+  <si>
+    <t>bug fixing leaderboard functionality and leaderboard user story test</t>
+  </si>
+  <si>
+    <t>Will Maberry coded, wrote automatic tests, and user story test</t>
+  </si>
+  <si>
+    <t>bug fixing user authentication and user authentication story test</t>
+  </si>
+  <si>
+    <t>Automatic WholeGameTest.java</t>
   </si>
 </sst>
 </file>
@@ -613,17 +637,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C38"/>
+  <dimension ref="A1:C47"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A41" sqref="A41"/>
+    <sheetView tabSelected="1" topLeftCell="A36" workbookViewId="0">
+      <selection activeCell="C50" sqref="C50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="49.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="58" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="51.7109375" customWidth="1"/>
-    <col min="3" max="3" width="34.5703125" customWidth="1"/>
+    <col min="3" max="3" width="55.140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="29.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1021,6 +1045,95 @@
         <v>25</v>
       </c>
     </row>
+    <row r="39" spans="1:3">
+      <c r="A39" s="1"/>
+      <c r="B39" s="1"/>
+      <c r="C39" s="1"/>
+    </row>
+    <row r="40" spans="1:3">
+      <c r="A40" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="B40" s="1"/>
+      <c r="C40" s="1"/>
+    </row>
+    <row r="41" spans="1:3">
+      <c r="A41" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="B41" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C41" s="6" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3">
+      <c r="A42" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="B42" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C42" s="7" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3">
+      <c r="A43" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="B43" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="C43" s="8" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3">
+      <c r="A44" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="B44" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="C44" s="9" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3">
+      <c r="A45" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="B45" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C45" s="8" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3">
+      <c r="A46" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="B46" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="C46" s="7" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3">
+      <c r="A47" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="B47" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C47" s="6" t="s">
+        <v>15</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
